--- a/data/trans_media/P34F2_HOR_2023-Habitat-trans_media.xlsx
+++ b/data/trans_media/P34F2_HOR_2023-Habitat-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,9</t>
+          <t>0,49; 0,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,78</t>
+          <t>0,53; 0,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,78</t>
+          <t>0,54; 0,77</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,91</t>
+          <t>0,72; 0,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 0,9</t>
+          <t>0,73; 0,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,75</t>
+          <t>0,62; 0,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,73</t>
+          <t>0,61; 0,73</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,16</t>
+          <t>0,92; 1,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,0</t>
+          <t>0,85; 1,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,73</t>
+          <t>0,93; 1,68</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,66</t>
+          <t>0,54; 0,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,77</t>
+          <t>0,66; 0,78</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,12</t>
+          <t>0,7; 1,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 0,99</t>
+          <t>0,76; 0,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/P34F2_HOR_2023-Habitat-trans_media.xlsx
+++ b/data/trans_media/P34F2_HOR_2023-Habitat-trans_media.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
